--- a/UnitedStates-raw.xlsx
+++ b/UnitedStates-raw.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riyat\KEYS2023-Training\OriginalData\KEYS2023Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AAAB3C-1D81-413E-AC94-657C2E2C16E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="UnitedStates_raw" sheetId="1" r:id="rId4"/>
+    <sheet name="UnitedStates_raw" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>country</t>
   </si>
@@ -37,29 +46,53 @@
     <t>Americas</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>Americass</t>
-  </si>
-  <si>
-    <t>Do we need more data?</t>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>'Do we need more data?''</t>
+  </si>
+  <si>
+    <t>'Changed continent 'Americass' to 'Americas'"</t>
+  </si>
+  <si>
+    <t>'Changed continent 'tbd' to 'Americas'"</t>
+  </si>
+  <si>
+    <t>"Removed third decimal '2' from lifExp to align rounding level of data to that of all other lifExp entries"</t>
+  </si>
+  <si>
+    <t>"Explanation for choosing to enter missing year as '1982'"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,36 +101,48 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -287,20 +332,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -319,250 +369,385 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1997.0</v>
+        <v>1952</v>
       </c>
       <c r="C2" s="1">
-        <v>2.7291176E8</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>157553000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
+        <v>68.44</v>
+      </c>
+      <c r="F2" s="1">
+        <v>13990</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1957</v>
+      </c>
+      <c r="C3" s="1">
+        <v>171984000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>69.489999999999995</v>
+      </c>
+      <c r="F3" s="1">
+        <v>14847</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1962</v>
+      </c>
+      <c r="C4" s="1">
+        <v>186538000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70.209999999999994</v>
+      </c>
+      <c r="F4" s="1">
+        <v>16173</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1967</v>
+      </c>
+      <c r="C5" s="1">
+        <v>198712000</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="F5" s="1">
+        <v>19530</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1972</v>
+      </c>
+      <c r="C6" s="1">
+        <v>209896000</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>71.34</v>
+      </c>
+      <c r="F6" s="1">
+        <v>21806</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1977</v>
+      </c>
+      <c r="C7" s="1">
+        <v>220239000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>73.38</v>
+      </c>
+      <c r="F7" s="1">
+        <v>24072</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1982</v>
+      </c>
+      <c r="C8" s="1">
+        <v>232187835</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>74.650000000000006</v>
+      </c>
+      <c r="F8" s="1">
+        <v>25009</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1987</v>
+      </c>
+      <c r="C9" s="1">
+        <v>242803533</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
+        <v>75.02</v>
+      </c>
+      <c r="F9" s="1">
+        <v>29884</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C10" s="1">
+        <v>256894189</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>76.09</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32003</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>272911760</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1">
         <v>76.81</v>
       </c>
-      <c r="F2" s="1">
-        <v>35767.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2002.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.87675526E8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="F11" s="1">
+        <v>35767</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2002</v>
+      </c>
+      <c r="C12" s="1">
+        <v>287675526</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
         <v>77.31</v>
       </c>
-      <c r="F3" s="1">
-        <v>39097.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2007.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3.01139947E8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>78.242</v>
-      </c>
-      <c r="F4" s="1">
-        <v>42951.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1952.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.57553E8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>68.44</v>
-      </c>
-      <c r="F5" s="1">
-        <v>13990.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1957.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.71984E8</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F12" s="1">
+        <v>39097</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C13" s="1">
+        <v>301139947</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>78.239999999999995</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42951</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1">
-        <v>69.49</v>
-      </c>
-      <c r="F6" s="1">
-        <v>14847.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1962.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.86538E8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70.21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16173.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1967.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.98712E8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70.76</v>
-      </c>
-      <c r="F8" s="1">
-        <v>19530.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1972.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.09896E8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1">
-        <v>71.34</v>
-      </c>
-      <c r="F9" s="1">
-        <v>21806.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1977.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.20239E8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1">
-        <v>73.38</v>
-      </c>
-      <c r="F10" s="1">
-        <v>24072.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.32187835E8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>74.65</v>
-      </c>
-      <c r="F11" s="1">
-        <v>25009.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1987.0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.42803533E8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1">
-        <v>75.02</v>
-      </c>
-      <c r="F12" s="1">
-        <v>29884.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1992.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.56894189E8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>76.09</v>
-      </c>
-      <c r="F13" s="1">
-        <v>32003.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="C2:C13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>